--- a/biology/Botanique/Aphanizomenonaceae/Aphanizomenonaceae.xlsx
+++ b/biology/Botanique/Aphanizomenonaceae/Aphanizomenonaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aphanizomenonaceae est une famille de cyanobactéries de l’ordre des Nostocales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (14 mai 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (14 mai 2018) :
 genre Anabaenopsis V.V.Miller
 genre Aphanizomenon A.Morren ex É.Bornet &amp; C.Flahault
 genre Chrysosporum E.Zapomelová, O.Skaácelová, P.Pumann, R.Kopp &amp; E.Janecek
@@ -525,7 +539,7 @@
 genre Raphidiopsis F.E.Fritsch &amp; F.Rich
 genre Sphaerospermopsis Zapomelová, Jezberová, Hrouzek, Hisem, Reháková &amp; Komárková
 genre Umezakia M.Watanabe
-Selon NCBI  (14 mai 2018)[3] :
+Selon NCBI  (14 mai 2018) :
 genre Anabaenopsis
 genre Aphanizomenon
 genre Chrysosporum Zapomelova &amp; al. 2012
@@ -537,7 +551,7 @@
 genre Raphidiopsis Fritsch &amp; Rich 1929
 genre Sphaerospermopsis Zapomelova &amp; al. 2010
 genre Umezakia Watanabe 1987
-Selon World Register of Marine Species                               (14 mai 2018)[4] :
+Selon World Register of Marine Species                               (14 mai 2018) :
 genre Chrysosporum E.Zapomelová, O.Skaácelová, P.Pumann, R.Kopp &amp; E.Janecek, 2012</t>
         </is>
       </c>
